--- a/availability_log.xlsx
+++ b/availability_log.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-11-29 20:08:13</t>
+          <t>2023-12-10 14:57:43</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-11-29 20:08:27</t>
+          <t>2023-12-10 14:57:58</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-11-29 20:08:41</t>
+          <t>2023-12-10 14:58:13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,10 +484,814 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-11-29 20:08:56</t>
+          <t>2023-12-10 14:58:27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-12-10 14:58:41</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-12-10 14:58:55</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-12-10 14:59:09</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-12-10 14:59:23</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-12-10 14:59:36</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-12-10 14:59:50</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:00:04</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:00:18</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:00:32</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:00:47</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:01:01</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:01:15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:01:29</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:01:43</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:01:57</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:02:11</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:02:26</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:02:40</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:02:54</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:03:08</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:03:21</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:03:36</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:03:50</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:04:04</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:04:18</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:04:32</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:04:47</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:05:01</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:05:15</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:05:29</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:05:43</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:05:58</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:06:11</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:06:25</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:06:39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:06:53</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:07:08</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:07:22</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:07:36</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:07:50</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:08:04</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:08:18</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:08:32</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:08:46</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:09:00</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:09:14</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:09:28</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:09:42</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:09:57</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:10:10</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:10:24</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:10:38</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:10:52</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:11:08</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:11:22</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:11:36</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:11:50</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:12:05</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:12:18</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:12:33</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:12:47</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:13:02</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:13:15</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:13:29</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:13:45</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:13:59</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>No new available times</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-12-10 15:14:13</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>No new available times</t>
         </is>
